--- a/biology/Botanique/Gonyaulacales/Gonyaulacales.xlsx
+++ b/biology/Botanique/Gonyaulacales/Gonyaulacales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ordre des Gonyaulacales est un ordre d’algues dinophycées de la classe des Dinophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (18 jan. 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (18 jan. 2022) :
 famille des Belodiniaceae Eisenack
 famille des Ceratiaceae (en) Kofoid
 famille des Cladopyxidaceae Kofoid
@@ -530,7 +544,7 @@
 famille des Pyrophacaceae Lindemann
 famille des Rhaetogonyaulacaceae
 famille des Tovelliaceae Moestrup, Lindberg &amp; Daugbjerg
-Selon Catalogue of Life                                   (10 mars 2019)[4] :
+Selon Catalogue of Life                                   (10 mars 2019) :
 famille des Amphidomataceae
 famille des Areoligeraceae
 famille des Ceratiaceae
@@ -546,7 +560,7 @@
 famille des Pyrocystaceae
 famille des Scriniocassiaceae
 famille des Shublikodiniaceae
-Selon ITIS      (10 mars 2019)[5] :
+Selon ITIS      (10 mars 2019) :
 famille des Calciodinellaceae F. J. R. Taylor, 1987
 famille des Ceratiaceae Lindemann, 1928
 famille des Ceratocoryaceae Lindemann, 1928
@@ -560,7 +574,7 @@
 famille des Pyrocystaceae (Schütt) Lemmermann, 1899
 famille des Pyrophacaceae Lindemann, 1928
 famille des Thecadiniaceae Balech, 1956
-Selon NCBI  (10 mars 2019)[6] :
+Selon NCBI  (10 mars 2019) :
 famille des Amphidomataceae Sournia 1984
 famille des Calciodinellaceae
 famille des Ceratiaceae
@@ -575,7 +589,7 @@
 genre Grammatodinium
 genre Lingulodinium
 genre Pentaplacodinium Mertens, Carbonell-Moore, Pospelova &amp; Head 2018
-Selon Paleobiology Database                   (10 mars 2019)[7] :
+Selon Paleobiology Database                   (10 mars 2019) :
 non-classé Areoligeraceae
 genre Batiacasphaera
 genre Bourkidinium
@@ -605,7 +619,7 @@
 genre Tetrachacysta
 genre Valensiella
 genre Xiphophoridium
-Selon World Register of Marine Species                               (10 mars 2019)[2] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 famille des Belodiniaceae Eisenack, 1969 †
 famille des Ceratiaceae Kofoid, 1907
 famille des Ceratocoryaceae Lindemann, 1928
